--- a/biology/Botanique/Potamot/Potamot.xlsx
+++ b/biology/Botanique/Potamot/Potamot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamogeton
 Le Potamot (Potamogeton) est un genre cosmopolite de plantes à fleurs aquatiques hydrophytes de la famille des Potamogetonaceae. Il compte environ 90 espèces vivant en grande majorité dans les eaux calmes ou peu courantes, mésotrophes à eutrophes.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre dérive du Grec et latin, potamos, « fleuve », et geitôn, « voisin », littéralement « voisin du fleuve »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre dérive du Grec et latin, potamos, « fleuve », et geitôn, « voisin », littéralement « voisin du fleuve ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cricotopus elegans est une espèce de diptères nématocères de la famille des Chironomidae dont les larves minent les feuilles des plantes aquatiques du genre Potamogeton[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cricotopus elegans est une espèce de diptères nématocères de la famille des Chironomidae dont les larves minent les feuilles des plantes aquatiques du genre Potamogeton.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), quelques espèces servent parfois d'aliment en Asie (ex : feuilles et tiges de P. crispus et P. pectinatus, occasionnellement consommées au Japon, souvent avec du miso ; les tiges pouvant par ailleurs aussi être conservée dans du vinaigre)[3]. 
-Les petits tubercules terminaux, riches en amidon, de P. lucens, P. natans et P. pectinatus seraient comestibles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), quelques espèces servent parfois d'aliment en Asie (ex : feuilles et tiges de P. crispus et P. pectinatus, occasionnellement consommées au Japon, souvent avec du miso ; les tiges pouvant par ailleurs aussi être conservée dans du vinaigre). 
+Les petits tubercules terminaux, riches en amidon, de P. lucens, P. natans et P. pectinatus seraient comestibles.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (7 décembre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (7 décembre 2023) :
 Potamogeton ×absconditus Z.Kaplan, Fehrer &amp; Hellq.
 Potamogeton acutifolius Link
 Potamogeton ×aemulans Z.Kaplan, Hellq. &amp; Fehrer
@@ -805,9 +825,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Potamogeton a pour synonymes[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Potamogeton a pour synonymes :
 Buccaferrea Bubani dans Nuovo Giorn. Bot. Ital., vol. 5, page 316, 1873, nom. illeg.
 Hydrogeton Lour. dans Fl. Cochinch. page 244, 1790
 Peltopsis Raf. dans J. Phys. Chim. Hist. Nat. Arts vol. 89, page 102, 1819
